--- a/Clase_1_Introduccion_R_y_Tidyverse/Puestos.xlsx
+++ b/Clase_1_Introduccion_R_y_Tidyverse/Puestos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df6c037600022ad7/Documents/R/curso_introduccion_r/Clase_1_Introduccion_R_y_Tidyverse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{939F474D-2193-4D26-A537-187363858262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B65310AF-1B76-4918-A2C6-85BB76FE4131}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{939F474D-2193-4D26-A537-187363858262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B277A3-0090-4503-A5B1-FD69788852E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D425EF94-2620-4E8A-AEDC-D03C26C636D9}"/>
   </bookViews>
@@ -443,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8806AF0-65DB-4FB7-8ECA-1D110F3268DA}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>597</v>
       </c>
@@ -476,7 +476,7 @@
         <v>25129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>789</v>
       </c>
@@ -487,7 +487,7 @@
         <v>24474</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>791</v>
       </c>
@@ -498,7 +498,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>804</v>
       </c>
@@ -509,7 +509,7 @@
         <v>34235</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>816</v>
       </c>
@@ -520,7 +520,7 @@
         <v>26401</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>820</v>
       </c>
@@ -531,7 +531,7 @@
         <v>26682</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>851</v>
       </c>
@@ -542,7 +542,7 @@
         <v>23851</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>864</v>
       </c>
@@ -553,7 +553,7 @@
         <v>25811</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>867</v>
       </c>
@@ -564,7 +564,7 @@
         <v>25877</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>872</v>
       </c>
@@ -575,7 +575,7 @@
         <v>31150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>892</v>
       </c>
@@ -586,7 +586,7 @@
         <v>25709</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>898</v>
       </c>
@@ -597,7 +597,7 @@
         <v>22163</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>918</v>
       </c>
@@ -608,7 +608,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>967</v>
       </c>
@@ -619,7 +619,7 @@
         <v>27952</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>972</v>
       </c>
@@ -630,7 +630,7 @@
         <v>22380</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>974</v>
       </c>
@@ -641,7 +641,7 @@
         <v>28366</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>980</v>
       </c>
@@ -652,7 +652,7 @@
         <v>27665</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>984</v>
       </c>
@@ -663,7 +663,7 @@
         <v>23674</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1085</v>
       </c>
@@ -674,7 +674,7 @@
         <v>61994</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1091</v>
       </c>
@@ -685,7 +685,7 @@
         <v>26954</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1138</v>
       </c>
@@ -696,7 +696,7 @@
         <v>36737</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1303</v>
       </c>
@@ -707,7 +707,7 @@
         <v>36737</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1310</v>
       </c>
@@ -718,7 +718,7 @@
         <v>36737</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1335</v>
       </c>
@@ -740,7 +740,7 @@
         <v>34523</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1368</v>
       </c>
@@ -751,7 +751,7 @@
         <v>37196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1404</v>
       </c>
@@ -773,7 +773,7 @@
         <v>38010</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1423</v>
       </c>
@@ -784,7 +784,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1427</v>
       </c>
@@ -795,7 +795,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1428</v>
       </c>
@@ -806,7 +806,7 @@
         <v>41196</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1429</v>
       </c>
@@ -817,7 +817,7 @@
         <v>37618</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1436</v>
       </c>
@@ -828,7 +828,7 @@
         <v>31732</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1437</v>
       </c>
@@ -839,7 +839,7 @@
         <v>37876</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1440</v>
       </c>
@@ -850,7 +850,7 @@
         <v>40680</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1446</v>
       </c>
@@ -861,7 +861,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1453</v>
       </c>
@@ -872,7 +872,7 @@
         <v>37499</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1454</v>
       </c>
@@ -883,7 +883,7 @@
         <v>38410</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1455</v>
       </c>
@@ -894,7 +894,7 @@
         <v>36692</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1456</v>
       </c>
@@ -905,7 +905,7 @@
         <v>36667</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1458</v>
       </c>
@@ -916,7 +916,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1464</v>
       </c>
@@ -927,7 +927,7 @@
         <v>84366</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1471</v>
       </c>
@@ -938,7 +938,7 @@
         <v>86366</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1472</v>
       </c>
@@ -949,7 +949,7 @@
         <v>30266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1474</v>
       </c>
@@ -960,7 +960,7 @@
         <v>32551</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1475</v>
       </c>
@@ -971,7 +971,7 @@
         <v>32411</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1495</v>
       </c>
@@ -982,7 +982,7 @@
         <v>27124</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1499</v>
       </c>
@@ -993,7 +993,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1504</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>53115</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1601</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>66164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1606</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>28784</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1604</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>41873</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1611</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>40147</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1613</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>31160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1618</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>30359</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1621</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>25170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1626</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>31201</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1627</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>31793</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1628</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>19588</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1633</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>25409</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1634</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>36991</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1637</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>65347</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1638</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>28219</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1639</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>31487</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1654</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>23696</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1661</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>31375</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1674</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>26864</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1680</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>24532</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1681</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>39912</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1683</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>41802</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1684</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>22547</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1686</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>29201</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1687</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>83453</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1688</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>26443</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1691</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>19622</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1703</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>27700</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1708</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>17990</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1714</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>31340</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1717</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>30833</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1722</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>22954</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1730</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>24329</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1733</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>19128</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1737</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>31879</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1738</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>41351</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1739</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>16253</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1744</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>31489</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1746</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>23854</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1748</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1749</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>26928</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1619</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>64016</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1751</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1753</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>23681</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1754</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>18122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1756</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>23398</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1757</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>94128</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1758</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>24865</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1759</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>20136</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1762</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>22283</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>1763</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>1766</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>1768</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>3000</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>25586</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>3009</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>28366</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>3010</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>25586</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3018</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>24990</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>3048</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>28366</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>3051</v>
       </c>
@@ -1951,13 +1951,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C136" xr:uid="{A190258A-0320-4448-8C6A-4C6CE6C78029}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ANALISTA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C136" xr:uid="{A190258A-0320-4448-8C6A-4C6CE6C78029}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>